--- a/traits_meta.xlsx
+++ b/traits_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin\OneDrive\Documents\GitHub\desert-fires-impact-biodiversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05671282-BFB5-4708-9D2F-CB44987CAA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403CC363-0D9E-452D-88F3-EEECB854C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{58527164-18A1-412D-8A80-D4766E18112A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{58527164-18A1-412D-8A80-D4766E18112A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E78B25-B308-4096-9B87-A9CD9C09DF52}">
   <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/traits_meta.xlsx
+++ b/traits_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marin\OneDrive\Documents\GitHub\desert-fires-impact-biodiversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403CC363-0D9E-452D-88F3-EEECB854C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4E8D1-5F95-4150-8F50-9B4349D39718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{58527164-18A1-412D-8A80-D4766E18112A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{58527164-18A1-412D-8A80-D4766E18112A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>fossorial</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>foraging behavior</t>
+  </si>
+  <si>
+    <t>folivory - feeds on leaves, soft shoots, or fruits of shrubs</t>
+  </si>
+  <si>
+    <t>feed on grass or other lower vegetations</t>
   </si>
 </sst>
 </file>
@@ -513,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E78B25-B308-4096-9B87-A9CD9C09DF52}">
   <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,72 +528,78 @@
     <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
